--- a/storage/excel/import/attribute/灯具.xlsx
+++ b/storage/excel/import/attribute/灯具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="304">
   <si>
     <t>一级类目</t>
   </si>
@@ -57,9 +57,6 @@
     <t>灯具</t>
   </si>
   <si>
-    <t>商品属性</t>
-  </si>
-  <si>
     <t>适用空间</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
   </si>
   <si>
     <t>光源个数</t>
-  </si>
-  <si>
-    <t>销售属性</t>
   </si>
   <si>
     <t>颜色</t>
@@ -1280,58 +1274,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="7" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" customWidth="1"/>
-    <col min="31" max="31" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" customWidth="1"/>
-    <col min="35" max="35" width="7.33203125" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" customWidth="1"/>
-    <col min="37" max="37" width="6.33203125" customWidth="1"/>
-    <col min="38" max="38" width="13.6640625" customWidth="1"/>
-    <col min="39" max="39" width="12.6640625" customWidth="1"/>
-    <col min="40" max="40" width="13.6640625" customWidth="1"/>
-    <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="42" max="42" width="12.6640625" customWidth="1"/>
-    <col min="43" max="43" width="13.6640625" customWidth="1"/>
-    <col min="44" max="44" width="17.1640625" customWidth="1"/>
-    <col min="45" max="45" width="14.83203125" customWidth="1"/>
-    <col min="46" max="46" width="16" customWidth="1"/>
-    <col min="47" max="47" width="17.1640625" customWidth="1"/>
-    <col min="48" max="48" width="16" customWidth="1"/>
+    <col min="1" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.5" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="25" width="8.33203125" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" customWidth="1"/>
+    <col min="35" max="35" width="5.33203125" customWidth="1"/>
+    <col min="36" max="36" width="6.33203125" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" customWidth="1"/>
+    <col min="43" max="43" width="17.1640625" customWidth="1"/>
+    <col min="44" max="44" width="14.83203125" customWidth="1"/>
+    <col min="45" max="45" width="16" customWidth="1"/>
+    <col min="46" max="46" width="17.1640625" customWidth="1"/>
+    <col min="47" max="47" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,12 +1337,14 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1467,11 +1463,8 @@
       <c r="AU1" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1480,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1535,11 +1528,8 @@
       <c r="U2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1556,12 +1546,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1582,9 +1572,7 @@
       <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1602,9 +1590,8 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1621,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
@@ -1677,11 +1664,8 @@
       <c r="X4" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1698,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -1763,11 +1747,8 @@
       <c r="AA5" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1783,11 +1764,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>73</v>
@@ -1909,14 +1890,11 @@
       <c r="AU6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1933,80 +1911,78 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
+      <c r="P7" s="1">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5</v>
-      </c>
-      <c r="N7" s="1">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1">
-        <v>7</v>
-      </c>
-      <c r="P7" s="1">
-        <v>8</v>
-      </c>
       <c r="Q7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T7" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X7" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC7" s="1">
-        <v>21</v>
-      </c>
-      <c r="AD7" s="1">
         <v>22</v>
       </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -2029,9 +2005,8 @@
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2047,164 +2022,161 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L20" s="1"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L21" s="1"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L22" s="1"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L23" s="1"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L24" s="1"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.15">
-      <c r="L26" s="1"/>
-      <c r="O26" s="3"/>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K20" s="1"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K21" s="1"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K22" s="1"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K23" s="1"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K24" s="1"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K26" s="1"/>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2243,195 +2215,195 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" t="s">
         <v>160</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -2447,312 +2419,312 @@
     </row>
     <row r="3" spans="1:51" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>161</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>161</v>
-      </c>
       <c r="F4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" t="s">
         <v>184</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>185</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>186</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>187</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>188</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>189</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>190</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>191</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>192</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>193</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>194</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>195</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>196</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>197</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>198</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>199</v>
-      </c>
-      <c r="W4" t="s">
-        <v>200</v>
-      </c>
-      <c r="X4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>57</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>58</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>59</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>60</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>62</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>63</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>64</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>65</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>66</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>67</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>68</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>69</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>71</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
@@ -2761,209 +2733,209 @@
     </row>
     <row r="7" spans="1:51" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
-      </c>
       <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
         <v>159</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.15">
